--- a/REGULAR/SARDINOLA, GINABLETH JAVIER.xlsx
+++ b/REGULAR/SARDINOLA, GINABLETH JAVIER.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972B2FF9-6E94-4C4F-8065-797405280335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38275BCC-6053-4062-BCF5-EB44D44597A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,17 +25,28 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="359">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1109,6 +1120,9 @@
   </si>
   <si>
     <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1557,6 +1571,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3923,7 +3940,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A504" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B515" sqref="B515"/>
+      <selection pane="bottomLeft" activeCell="F515" sqref="F515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4086,7 +4103,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>129.45799999999994</v>
+        <v>130.70799999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4096,7 +4113,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>185.33299999999997</v>
+        <v>186.58299999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15257,13 +15274,15 @@
         <v>44986</v>
       </c>
       <c r="B515" s="20"/>
-      <c r="C515" s="13"/>
+      <c r="C515" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D515" s="39"/>
       <c r="E515" s="9"/>
       <c r="F515" s="20"/>
-      <c r="G515" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G515" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H515" s="39"/>
       <c r="I515" s="9"/>
@@ -15370,7 +15389,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15466,6 +15485,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>358</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>27</v>
       </c>
@@ -15487,6 +15509,10 @@
       <c r="L6" s="67"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="68">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>317.29099999999994</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>

--- a/REGULAR/SARDINOLA, GINABLETH JAVIER.xlsx
+++ b/REGULAR/SARDINOLA, GINABLETH JAVIER.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38275BCC-6053-4062-BCF5-EB44D44597A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C0A28E-9A21-40A7-AAD6-1C2913A8D25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,23 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="359">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1373,7 +1362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1571,9 +1560,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3541,7 +3527,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3558,7 +3544,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K518" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K559" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3936,11 +3922,11 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K518"/>
+  <dimension ref="A2:K559"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A504" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="F515" sqref="F515"/>
+      <pane ySplit="3576" topLeftCell="A512" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B519" sqref="B519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4103,7 +4089,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>130.70799999999994</v>
+        <v>134.45799999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4113,7 +4099,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>186.58299999999997</v>
+        <v>190.33299999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15221,7 +15207,7 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B513" s="20" t="s">
         <v>355</v>
@@ -15247,7 +15233,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B514" s="20" t="s">
         <v>357</v>
@@ -15271,7 +15257,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13">
@@ -15291,16 +15277,18 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B516" s="20"/>
-      <c r="C516" s="13"/>
+      <c r="C516" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D516" s="39"/>
       <c r="E516" s="9"/>
       <c r="F516" s="20"/>
-      <c r="G516" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G516" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H516" s="39"/>
       <c r="I516" s="9"/>
@@ -15309,16 +15297,18 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B517" s="20"/>
-      <c r="C517" s="13"/>
+      <c r="C517" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D517" s="39"/>
       <c r="E517" s="9"/>
       <c r="F517" s="20"/>
-      <c r="G517" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G517" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H517" s="39"/>
       <c r="I517" s="9"/>
@@ -15327,21 +15317,725 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B518" s="15"/>
-      <c r="C518" s="42"/>
+        <v>45107</v>
+      </c>
+      <c r="B518" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C518" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D518" s="43"/>
       <c r="E518" s="53"/>
       <c r="F518" s="15"/>
-      <c r="G518" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G518" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H518" s="43"/>
       <c r="I518" s="53"/>
       <c r="J518" s="12"/>
-      <c r="K518" s="15"/>
+      <c r="K518" s="54">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A519" s="40">
+        <v>45138</v>
+      </c>
+      <c r="B519" s="20"/>
+      <c r="C519" s="13"/>
+      <c r="D519" s="39"/>
+      <c r="E519" s="9"/>
+      <c r="F519" s="20"/>
+      <c r="G519" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H519" s="39"/>
+      <c r="I519" s="9"/>
+      <c r="J519" s="11"/>
+      <c r="K519" s="20"/>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A520" s="40">
+        <v>45169</v>
+      </c>
+      <c r="B520" s="20"/>
+      <c r="C520" s="13"/>
+      <c r="D520" s="39"/>
+      <c r="E520" s="9"/>
+      <c r="F520" s="20"/>
+      <c r="G520" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H520" s="39"/>
+      <c r="I520" s="9"/>
+      <c r="J520" s="11"/>
+      <c r="K520" s="20"/>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A521" s="40">
+        <v>45199</v>
+      </c>
+      <c r="B521" s="20"/>
+      <c r="C521" s="13"/>
+      <c r="D521" s="39"/>
+      <c r="E521" s="9"/>
+      <c r="F521" s="20"/>
+      <c r="G521" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H521" s="39"/>
+      <c r="I521" s="9"/>
+      <c r="J521" s="11"/>
+      <c r="K521" s="20"/>
+    </row>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A522" s="40">
+        <v>45230</v>
+      </c>
+      <c r="B522" s="20"/>
+      <c r="C522" s="13"/>
+      <c r="D522" s="39"/>
+      <c r="E522" s="9"/>
+      <c r="F522" s="20"/>
+      <c r="G522" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H522" s="39"/>
+      <c r="I522" s="9"/>
+      <c r="J522" s="11"/>
+      <c r="K522" s="20"/>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A523" s="40">
+        <v>45260</v>
+      </c>
+      <c r="B523" s="20"/>
+      <c r="C523" s="13"/>
+      <c r="D523" s="39"/>
+      <c r="E523" s="9"/>
+      <c r="F523" s="20"/>
+      <c r="G523" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H523" s="39"/>
+      <c r="I523" s="9"/>
+      <c r="J523" s="11"/>
+      <c r="K523" s="20"/>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A524" s="40">
+        <v>45291</v>
+      </c>
+      <c r="B524" s="20"/>
+      <c r="C524" s="13"/>
+      <c r="D524" s="39"/>
+      <c r="E524" s="9"/>
+      <c r="F524" s="20"/>
+      <c r="G524" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H524" s="39"/>
+      <c r="I524" s="9"/>
+      <c r="J524" s="11"/>
+      <c r="K524" s="20"/>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A525" s="40">
+        <v>45322</v>
+      </c>
+      <c r="B525" s="20"/>
+      <c r="C525" s="13"/>
+      <c r="D525" s="39"/>
+      <c r="E525" s="9"/>
+      <c r="F525" s="20"/>
+      <c r="G525" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H525" s="39"/>
+      <c r="I525" s="9"/>
+      <c r="J525" s="11"/>
+      <c r="K525" s="20"/>
+    </row>
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A526" s="40">
+        <v>45351</v>
+      </c>
+      <c r="B526" s="20"/>
+      <c r="C526" s="13"/>
+      <c r="D526" s="39"/>
+      <c r="E526" s="9"/>
+      <c r="F526" s="20"/>
+      <c r="G526" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H526" s="39"/>
+      <c r="I526" s="9"/>
+      <c r="J526" s="11"/>
+      <c r="K526" s="20"/>
+    </row>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A527" s="40">
+        <v>45382</v>
+      </c>
+      <c r="B527" s="20"/>
+      <c r="C527" s="13"/>
+      <c r="D527" s="39"/>
+      <c r="E527" s="9"/>
+      <c r="F527" s="20"/>
+      <c r="G527" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H527" s="39"/>
+      <c r="I527" s="9"/>
+      <c r="J527" s="11"/>
+      <c r="K527" s="20"/>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A528" s="40">
+        <v>45412</v>
+      </c>
+      <c r="B528" s="20"/>
+      <c r="C528" s="13"/>
+      <c r="D528" s="39"/>
+      <c r="E528" s="9"/>
+      <c r="F528" s="20"/>
+      <c r="G528" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H528" s="39"/>
+      <c r="I528" s="9"/>
+      <c r="J528" s="11"/>
+      <c r="K528" s="20"/>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A529" s="40">
+        <v>45443</v>
+      </c>
+      <c r="B529" s="20"/>
+      <c r="C529" s="13"/>
+      <c r="D529" s="39"/>
+      <c r="E529" s="9"/>
+      <c r="F529" s="20"/>
+      <c r="G529" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H529" s="39"/>
+      <c r="I529" s="9"/>
+      <c r="J529" s="11"/>
+      <c r="K529" s="20"/>
+    </row>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A530" s="40">
+        <v>45473</v>
+      </c>
+      <c r="B530" s="20"/>
+      <c r="C530" s="13"/>
+      <c r="D530" s="39"/>
+      <c r="E530" s="9"/>
+      <c r="F530" s="20"/>
+      <c r="G530" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H530" s="39"/>
+      <c r="I530" s="9"/>
+      <c r="J530" s="11"/>
+      <c r="K530" s="20"/>
+    </row>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A531" s="40">
+        <v>45504</v>
+      </c>
+      <c r="B531" s="20"/>
+      <c r="C531" s="13"/>
+      <c r="D531" s="39"/>
+      <c r="E531" s="9"/>
+      <c r="F531" s="20"/>
+      <c r="G531" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H531" s="39"/>
+      <c r="I531" s="9"/>
+      <c r="J531" s="11"/>
+      <c r="K531" s="20"/>
+    </row>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A532" s="40">
+        <v>45535</v>
+      </c>
+      <c r="B532" s="20"/>
+      <c r="C532" s="13"/>
+      <c r="D532" s="39"/>
+      <c r="E532" s="9"/>
+      <c r="F532" s="20"/>
+      <c r="G532" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H532" s="39"/>
+      <c r="I532" s="9"/>
+      <c r="J532" s="11"/>
+      <c r="K532" s="20"/>
+    </row>
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A533" s="40">
+        <v>45565</v>
+      </c>
+      <c r="B533" s="20"/>
+      <c r="C533" s="13"/>
+      <c r="D533" s="39"/>
+      <c r="E533" s="9"/>
+      <c r="F533" s="20"/>
+      <c r="G533" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H533" s="39"/>
+      <c r="I533" s="9"/>
+      <c r="J533" s="11"/>
+      <c r="K533" s="20"/>
+    </row>
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A534" s="40">
+        <v>45596</v>
+      </c>
+      <c r="B534" s="20"/>
+      <c r="C534" s="13"/>
+      <c r="D534" s="39"/>
+      <c r="E534" s="9"/>
+      <c r="F534" s="20"/>
+      <c r="G534" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H534" s="39"/>
+      <c r="I534" s="9"/>
+      <c r="J534" s="11"/>
+      <c r="K534" s="20"/>
+    </row>
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A535" s="40">
+        <v>45626</v>
+      </c>
+      <c r="B535" s="20"/>
+      <c r="C535" s="13"/>
+      <c r="D535" s="39"/>
+      <c r="E535" s="9"/>
+      <c r="F535" s="20"/>
+      <c r="G535" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H535" s="39"/>
+      <c r="I535" s="9"/>
+      <c r="J535" s="11"/>
+      <c r="K535" s="20"/>
+    </row>
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A536" s="40">
+        <v>45657</v>
+      </c>
+      <c r="B536" s="20"/>
+      <c r="C536" s="13"/>
+      <c r="D536" s="39"/>
+      <c r="E536" s="9"/>
+      <c r="F536" s="20"/>
+      <c r="G536" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H536" s="39"/>
+      <c r="I536" s="9"/>
+      <c r="J536" s="11"/>
+      <c r="K536" s="20"/>
+    </row>
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A537" s="40">
+        <v>45688</v>
+      </c>
+      <c r="B537" s="20"/>
+      <c r="C537" s="13"/>
+      <c r="D537" s="39"/>
+      <c r="E537" s="9"/>
+      <c r="F537" s="20"/>
+      <c r="G537" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H537" s="39"/>
+      <c r="I537" s="9"/>
+      <c r="J537" s="11"/>
+      <c r="K537" s="20"/>
+    </row>
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A538" s="40">
+        <v>45716</v>
+      </c>
+      <c r="B538" s="20"/>
+      <c r="C538" s="13"/>
+      <c r="D538" s="39"/>
+      <c r="E538" s="9"/>
+      <c r="F538" s="20"/>
+      <c r="G538" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H538" s="39"/>
+      <c r="I538" s="9"/>
+      <c r="J538" s="11"/>
+      <c r="K538" s="20"/>
+    </row>
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A539" s="40">
+        <v>45747</v>
+      </c>
+      <c r="B539" s="20"/>
+      <c r="C539" s="13"/>
+      <c r="D539" s="39"/>
+      <c r="E539" s="9"/>
+      <c r="F539" s="20"/>
+      <c r="G539" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H539" s="39"/>
+      <c r="I539" s="9"/>
+      <c r="J539" s="11"/>
+      <c r="K539" s="20"/>
+    </row>
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A540" s="40"/>
+      <c r="B540" s="20"/>
+      <c r="C540" s="13"/>
+      <c r="D540" s="39"/>
+      <c r="E540" s="9"/>
+      <c r="F540" s="20"/>
+      <c r="G540" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H540" s="39"/>
+      <c r="I540" s="9"/>
+      <c r="J540" s="11"/>
+      <c r="K540" s="20"/>
+    </row>
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A541" s="40"/>
+      <c r="B541" s="20"/>
+      <c r="C541" s="13"/>
+      <c r="D541" s="39"/>
+      <c r="E541" s="9"/>
+      <c r="F541" s="20"/>
+      <c r="G541" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H541" s="39"/>
+      <c r="I541" s="9"/>
+      <c r="J541" s="11"/>
+      <c r="K541" s="20"/>
+    </row>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A542" s="40"/>
+      <c r="B542" s="20"/>
+      <c r="C542" s="13"/>
+      <c r="D542" s="39"/>
+      <c r="E542" s="9"/>
+      <c r="F542" s="20"/>
+      <c r="G542" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H542" s="39"/>
+      <c r="I542" s="9"/>
+      <c r="J542" s="11"/>
+      <c r="K542" s="20"/>
+    </row>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A543" s="40"/>
+      <c r="B543" s="20"/>
+      <c r="C543" s="13"/>
+      <c r="D543" s="39"/>
+      <c r="E543" s="9"/>
+      <c r="F543" s="20"/>
+      <c r="G543" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H543" s="39"/>
+      <c r="I543" s="9"/>
+      <c r="J543" s="11"/>
+      <c r="K543" s="20"/>
+    </row>
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A544" s="40"/>
+      <c r="B544" s="20"/>
+      <c r="C544" s="13"/>
+      <c r="D544" s="39"/>
+      <c r="E544" s="9"/>
+      <c r="F544" s="20"/>
+      <c r="G544" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H544" s="39"/>
+      <c r="I544" s="9"/>
+      <c r="J544" s="11"/>
+      <c r="K544" s="20"/>
+    </row>
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A545" s="40"/>
+      <c r="B545" s="20"/>
+      <c r="C545" s="13"/>
+      <c r="D545" s="39"/>
+      <c r="E545" s="9"/>
+      <c r="F545" s="20"/>
+      <c r="G545" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H545" s="39"/>
+      <c r="I545" s="9"/>
+      <c r="J545" s="11"/>
+      <c r="K545" s="20"/>
+    </row>
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A546" s="40"/>
+      <c r="B546" s="20"/>
+      <c r="C546" s="13"/>
+      <c r="D546" s="39"/>
+      <c r="E546" s="9"/>
+      <c r="F546" s="20"/>
+      <c r="G546" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H546" s="39"/>
+      <c r="I546" s="9"/>
+      <c r="J546" s="11"/>
+      <c r="K546" s="20"/>
+    </row>
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A547" s="40"/>
+      <c r="B547" s="20"/>
+      <c r="C547" s="13"/>
+      <c r="D547" s="39"/>
+      <c r="E547" s="9"/>
+      <c r="F547" s="20"/>
+      <c r="G547" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H547" s="39"/>
+      <c r="I547" s="9"/>
+      <c r="J547" s="11"/>
+      <c r="K547" s="20"/>
+    </row>
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A548" s="40"/>
+      <c r="B548" s="20"/>
+      <c r="C548" s="13"/>
+      <c r="D548" s="39"/>
+      <c r="E548" s="9"/>
+      <c r="F548" s="20"/>
+      <c r="G548" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H548" s="39"/>
+      <c r="I548" s="9"/>
+      <c r="J548" s="11"/>
+      <c r="K548" s="20"/>
+    </row>
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A549" s="40"/>
+      <c r="B549" s="20"/>
+      <c r="C549" s="13"/>
+      <c r="D549" s="39"/>
+      <c r="E549" s="9"/>
+      <c r="F549" s="20"/>
+      <c r="G549" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H549" s="39"/>
+      <c r="I549" s="9"/>
+      <c r="J549" s="11"/>
+      <c r="K549" s="20"/>
+    </row>
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A550" s="40"/>
+      <c r="B550" s="20"/>
+      <c r="C550" s="13"/>
+      <c r="D550" s="39"/>
+      <c r="E550" s="9"/>
+      <c r="F550" s="20"/>
+      <c r="G550" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H550" s="39"/>
+      <c r="I550" s="9"/>
+      <c r="J550" s="11"/>
+      <c r="K550" s="20"/>
+    </row>
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A551" s="40"/>
+      <c r="B551" s="20"/>
+      <c r="C551" s="13"/>
+      <c r="D551" s="39"/>
+      <c r="E551" s="9"/>
+      <c r="F551" s="20"/>
+      <c r="G551" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H551" s="39"/>
+      <c r="I551" s="9"/>
+      <c r="J551" s="11"/>
+      <c r="K551" s="20"/>
+    </row>
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A552" s="40"/>
+      <c r="B552" s="20"/>
+      <c r="C552" s="13"/>
+      <c r="D552" s="39"/>
+      <c r="E552" s="9"/>
+      <c r="F552" s="20"/>
+      <c r="G552" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H552" s="39"/>
+      <c r="I552" s="9"/>
+      <c r="J552" s="11"/>
+      <c r="K552" s="20"/>
+    </row>
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A553" s="40"/>
+      <c r="B553" s="20"/>
+      <c r="C553" s="13"/>
+      <c r="D553" s="39"/>
+      <c r="E553" s="9"/>
+      <c r="F553" s="20"/>
+      <c r="G553" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H553" s="39"/>
+      <c r="I553" s="9"/>
+      <c r="J553" s="11"/>
+      <c r="K553" s="20"/>
+    </row>
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A554" s="40"/>
+      <c r="B554" s="20"/>
+      <c r="C554" s="13"/>
+      <c r="D554" s="39"/>
+      <c r="E554" s="9"/>
+      <c r="F554" s="20"/>
+      <c r="G554" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H554" s="39"/>
+      <c r="I554" s="9"/>
+      <c r="J554" s="11"/>
+      <c r="K554" s="20"/>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A555" s="40"/>
+      <c r="B555" s="20"/>
+      <c r="C555" s="13"/>
+      <c r="D555" s="39"/>
+      <c r="E555" s="9"/>
+      <c r="F555" s="20"/>
+      <c r="G555" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H555" s="39"/>
+      <c r="I555" s="9"/>
+      <c r="J555" s="11"/>
+      <c r="K555" s="20"/>
+    </row>
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A556" s="40"/>
+      <c r="B556" s="20"/>
+      <c r="C556" s="13"/>
+      <c r="D556" s="39"/>
+      <c r="E556" s="9"/>
+      <c r="F556" s="20"/>
+      <c r="G556" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H556" s="39"/>
+      <c r="I556" s="9"/>
+      <c r="J556" s="11"/>
+      <c r="K556" s="20"/>
+    </row>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A557" s="40"/>
+      <c r="B557" s="20"/>
+      <c r="C557" s="13"/>
+      <c r="D557" s="39"/>
+      <c r="E557" s="9"/>
+      <c r="F557" s="20"/>
+      <c r="G557" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H557" s="39"/>
+      <c r="I557" s="9"/>
+      <c r="J557" s="11"/>
+      <c r="K557" s="20"/>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A558" s="40"/>
+      <c r="B558" s="20"/>
+      <c r="C558" s="13"/>
+      <c r="D558" s="39"/>
+      <c r="E558" s="9"/>
+      <c r="F558" s="20"/>
+      <c r="G558" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H558" s="39"/>
+      <c r="I558" s="9"/>
+      <c r="J558" s="11"/>
+      <c r="K558" s="20"/>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A559" s="41"/>
+      <c r="B559" s="15"/>
+      <c r="C559" s="42"/>
+      <c r="D559" s="43"/>
+      <c r="E559" s="9"/>
+      <c r="F559" s="15"/>
+      <c r="G559" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H559" s="43"/>
+      <c r="I559" s="9"/>
+      <c r="J559" s="12"/>
+      <c r="K559" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15509,9 +16203,9 @@
       <c r="L6" s="67"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="68">
+      <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>317.29099999999994</v>
+        <v>324.79099999999994</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/SARDINOLA, GINABLETH JAVIER.xlsx
+++ b/REGULAR/SARDINOLA, GINABLETH JAVIER.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C0A28E-9A21-40A7-AAD6-1C2913A8D25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="359">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1117,7 +1116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2009,7 +2008,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2052,7 +2051,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2116,7 +2115,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2176,7 +2175,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2242,7 +2241,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2305,7 +2304,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2403,7 +2402,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2462,7 +2461,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2527,7 +2526,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2570,7 +2569,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2645,7 +2644,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2831,7 +2830,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2897,7 +2896,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2955,7 +2954,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3021,7 +3020,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3077,7 +3076,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3152,7 +3151,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3195,7 +3194,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3261,7 +3260,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3317,7 +3316,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3415,7 +3414,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3478,7 +3477,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3527,7 +3526,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3544,25 +3543,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K559" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K559" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3574,13 +3573,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3589,14 +3588,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3900,7 +3899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3910,7 +3909,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3918,33 +3917,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K559"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A512" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B519" sqref="B519"/>
+      <pane ySplit="3690" topLeftCell="A512" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E519" sqref="E519"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3965,7 +3964,7 @@
       <c r="J2" s="58"/>
       <c r="K2" s="59"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
@@ -3985,7 +3984,7 @@
       <c r="J3" s="60"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
@@ -4007,7 +4006,7 @@
       <c r="J4" s="62"/>
       <c r="K4" s="63"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>17</v>
@@ -4015,7 +4014,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4028,7 +4027,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="56" t="s">
@@ -4045,7 +4044,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4080,7 +4079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>22</v>
@@ -4089,7 +4088,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>134.45799999999994</v>
+        <v>134.70799999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4099,12 +4098,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>190.33299999999997</v>
+        <v>191.58299999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>41</v>
       </c>
@@ -4126,7 +4125,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36161</v>
       </c>
@@ -4144,7 +4143,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>36192</v>
@@ -4163,7 +4162,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f t="shared" ref="A13:A22" si="0">EDATE(A12,1)</f>
         <v>36220</v>
@@ -4182,7 +4181,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>36251</v>
@@ -4201,7 +4200,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>36281</v>
@@ -4220,7 +4219,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>36312</v>
@@ -4239,7 +4238,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>36342</v>
@@ -4258,7 +4257,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>36373</v>
@@ -4279,7 +4278,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>36404</v>
@@ -4300,7 +4299,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>36434</v>
@@ -4321,7 +4320,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>36465</v>
@@ -4346,7 +4345,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f t="shared" si="0"/>
         <v>36495</v>
@@ -4371,7 +4370,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>44</v>
       </c>
@@ -4389,7 +4388,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>36526</v>
       </c>
@@ -4413,7 +4412,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f>EDATE(A24,1)</f>
         <v>36557</v>
@@ -4440,7 +4439,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" ref="A26:A34" si="1">EDATE(A25,1)</f>
         <v>36586</v>
@@ -4465,7 +4464,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>50</v>
@@ -4487,7 +4486,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f>EDATE(A26,1)</f>
         <v>36617</v>
@@ -4512,7 +4511,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f t="shared" si="1"/>
         <v>36647</v>
@@ -4537,7 +4536,7 @@
         <v>36561</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>47</v>
@@ -4559,7 +4558,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>52</v>
@@ -4581,7 +4580,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f>EDATE(A29,1)</f>
         <v>36678</v>
@@ -4606,7 +4605,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>36708</v>
@@ -4627,7 +4626,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" si="1"/>
         <v>36739</v>
@@ -4652,7 +4651,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>56</v>
@@ -4674,7 +4673,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f>EDATE(A34,1)</f>
         <v>36770</v>
@@ -4699,7 +4698,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>57</v>
@@ -4721,7 +4720,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>61</v>
@@ -4743,7 +4742,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f>EDATE(A36,1)</f>
         <v>36800</v>
@@ -4768,7 +4767,7 @@
         <v>36656</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13">
@@ -4786,7 +4785,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f>EDATE(A39,1)</f>
         <v>36831</v>
@@ -4811,7 +4810,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13">
@@ -4829,7 +4828,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f>EDATE(A41,1)</f>
         <v>36861</v>
@@ -4854,7 +4853,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
         <v>65</v>
       </c>
@@ -4872,7 +4871,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36892</v>
       </c>
@@ -4892,7 +4891,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f>EDATE(A45,1)</f>
         <v>36923</v>
@@ -4913,7 +4912,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" ref="A47:A57" si="2">EDATE(A46,1)</f>
         <v>36951</v>
@@ -4938,7 +4937,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13">
@@ -4956,7 +4955,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f>EDATE(A47,1)</f>
         <v>36982</v>
@@ -4977,7 +4976,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f t="shared" si="2"/>
         <v>37012</v>
@@ -5002,7 +5001,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13">
@@ -5020,7 +5019,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f>EDATE(A50,1)</f>
         <v>37043</v>
@@ -5041,7 +5040,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f t="shared" si="2"/>
         <v>37073</v>
@@ -5062,7 +5061,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" si="2"/>
         <v>37104</v>
@@ -5087,7 +5086,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13">
@@ -5105,7 +5104,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f>EDATE(A54,1)</f>
         <v>37135</v>
@@ -5126,7 +5125,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f t="shared" si="2"/>
         <v>37165</v>
@@ -5151,7 +5150,7 @@
         <v>37021</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13">
@@ -5169,7 +5168,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f>EDATE(A57,1)</f>
         <v>37196</v>
@@ -5194,7 +5193,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>72</v>
@@ -5216,7 +5215,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13">
@@ -5234,7 +5233,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <f>EDATE(A59,1)</f>
         <v>37226</v>
@@ -5255,7 +5254,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>75</v>
       </c>
@@ -5273,7 +5272,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>37257</v>
       </c>
@@ -5293,7 +5292,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f>EDATE(A64,1)</f>
         <v>37288</v>
@@ -5314,7 +5313,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f t="shared" ref="A66:A74" si="3">EDATE(A65,1)</f>
         <v>37316</v>
@@ -5335,7 +5334,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f t="shared" si="3"/>
         <v>37347</v>
@@ -5356,7 +5355,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" si="3"/>
         <v>37377</v>
@@ -5377,7 +5376,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f t="shared" si="3"/>
         <v>37408</v>
@@ -5398,7 +5397,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f t="shared" si="3"/>
         <v>37438</v>
@@ -5419,7 +5418,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <f t="shared" si="3"/>
         <v>37469</v>
@@ -5440,7 +5439,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f t="shared" si="3"/>
         <v>37500</v>
@@ -5465,7 +5464,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f t="shared" si="3"/>
         <v>37530</v>
@@ -5486,7 +5485,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f t="shared" si="3"/>
         <v>37561</v>
@@ -5507,7 +5506,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f>EDATE(A74,1)</f>
         <v>37591</v>
@@ -5530,7 +5529,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>78</v>
@@ -5552,7 +5551,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
         <v>79</v>
       </c>
@@ -5570,7 +5569,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>37622</v>
       </c>
@@ -5594,7 +5593,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13">
@@ -5612,7 +5611,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f>EDATE(A78,1)</f>
         <v>37653</v>
@@ -5637,7 +5636,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" ref="A81:A90" si="4">EDATE(A80,1)</f>
         <v>37681</v>
@@ -5662,7 +5661,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f t="shared" si="4"/>
         <v>37712</v>
@@ -5683,7 +5682,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f t="shared" si="4"/>
         <v>37742</v>
@@ -5708,7 +5707,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="4"/>
         <v>37773</v>
@@ -5729,7 +5728,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f t="shared" si="4"/>
         <v>37803</v>
@@ -5750,7 +5749,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="4"/>
         <v>37834</v>
@@ -5771,7 +5770,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f t="shared" si="4"/>
         <v>37865</v>
@@ -5792,7 +5791,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f t="shared" si="4"/>
         <v>37895</v>
@@ -5813,7 +5812,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f t="shared" si="4"/>
         <v>37926</v>
@@ -5834,7 +5833,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" si="4"/>
         <v>37956</v>
@@ -5859,7 +5858,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="48" t="s">
         <v>84</v>
       </c>
@@ -5877,7 +5876,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>37987</v>
       </c>
@@ -5897,7 +5896,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f>EDATE(A92,1)</f>
         <v>38018</v>
@@ -5918,7 +5917,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f t="shared" ref="A94:A106" si="5">EDATE(A93,1)</f>
         <v>38047</v>
@@ -5939,7 +5938,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" si="5"/>
         <v>38078</v>
@@ -5960,7 +5959,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="5"/>
         <v>38108</v>
@@ -5981,7 +5980,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="5"/>
         <v>38139</v>
@@ -6006,7 +6005,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13">
@@ -6024,7 +6023,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f>EDATE(A97,1)</f>
         <v>38169</v>
@@ -6045,7 +6044,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="5"/>
         <v>38200</v>
@@ -6066,7 +6065,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f t="shared" si="5"/>
         <v>38231</v>
@@ -6091,7 +6090,7 @@
         <v>38117</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13">
@@ -6109,7 +6108,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f>EDATE(A101,1)</f>
         <v>38261</v>
@@ -6134,7 +6133,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>87</v>
@@ -6156,7 +6155,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f>EDATE(A103,1)</f>
         <v>38292</v>
@@ -6177,7 +6176,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" si="5"/>
         <v>38322</v>
@@ -6202,7 +6201,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>89</v>
@@ -6222,7 +6221,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="48" t="s">
         <v>90</v>
       </c>
@@ -6240,7 +6239,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>38353</v>
       </c>
@@ -6264,7 +6263,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>45</v>
@@ -6286,7 +6285,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f>EDATE(A109,1)</f>
         <v>38384</v>
@@ -6311,7 +6310,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f t="shared" ref="A112:A121" si="6">EDATE(A111,1)</f>
         <v>38412</v>
@@ -6336,7 +6335,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>94</v>
@@ -6358,7 +6357,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f>EDATE(A112,1)</f>
         <v>38443</v>
@@ -6383,7 +6382,7 @@
         <v>38507</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>95</v>
@@ -6405,7 +6404,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f>EDATE(A114,1)</f>
         <v>38473</v>
@@ -6430,7 +6429,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" si="6"/>
         <v>38504</v>
@@ -6455,7 +6454,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f t="shared" si="6"/>
         <v>38534</v>
@@ -6480,7 +6479,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>98</v>
@@ -6502,7 +6501,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f>EDATE(A118,1)</f>
         <v>38565</v>
@@ -6523,7 +6522,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="6"/>
         <v>38596</v>
@@ -6548,7 +6547,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13">
@@ -6566,7 +6565,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f>EDATE(A121,1)</f>
         <v>38626</v>
@@ -6589,7 +6588,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>66</v>
@@ -6611,7 +6610,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13">
@@ -6629,7 +6628,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f>EDATE(A123,1)</f>
         <v>38657</v>
@@ -6654,7 +6653,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13">
@@ -6672,7 +6671,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>57</v>
@@ -6694,7 +6693,7 @@
         <v>38698</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>104</v>
@@ -6716,7 +6715,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f>EDATE(A126,1)</f>
         <v>38687</v>
@@ -6741,7 +6740,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="48" t="s">
         <v>106</v>
       </c>
@@ -6759,7 +6758,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>38718</v>
       </c>
@@ -6779,7 +6778,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f>EDATE(A132,1)</f>
         <v>38749</v>
@@ -6800,7 +6799,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f t="shared" ref="A134:A148" si="7">EDATE(A133,1)</f>
         <v>38777</v>
@@ -6821,7 +6820,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f t="shared" si="7"/>
         <v>38808</v>
@@ -6846,7 +6845,7 @@
         <v>39055</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13">
@@ -6864,7 +6863,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f>EDATE(A135,1)</f>
         <v>38838</v>
@@ -6885,7 +6884,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f t="shared" si="7"/>
         <v>38869</v>
@@ -6906,7 +6905,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" si="7"/>
         <v>38899</v>
@@ -6931,7 +6930,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13">
@@ -6949,7 +6948,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f>EDATE(A139,1)</f>
         <v>38930</v>
@@ -6974,7 +6973,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13">
@@ -6992,7 +6991,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f>EDATE(A141,1)</f>
         <v>38961</v>
@@ -7017,7 +7016,7 @@
         <v>38907</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>110</v>
@@ -7039,7 +7038,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>132</v>
@@ -7059,7 +7058,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13">
@@ -7077,7 +7076,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f>EDATE(A143,1)</f>
         <v>38991</v>
@@ -7098,7 +7097,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f t="shared" si="7"/>
         <v>39022</v>
@@ -7123,7 +7122,7 @@
         <v>39001</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13">
@@ -7141,7 +7140,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f>EDATE(A148,1)</f>
         <v>39052</v>
@@ -7166,7 +7165,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13">
@@ -7184,7 +7183,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="48" t="s">
         <v>114</v>
       </c>
@@ -7202,7 +7201,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>39083</v>
       </c>
@@ -7226,7 +7225,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f>EDATE(A153,1)</f>
         <v>39114</v>
@@ -7251,7 +7250,7 @@
         <v>39327</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>116</v>
@@ -7273,7 +7272,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>57</v>
@@ -7293,7 +7292,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <f>EDATE(A154,1)</f>
         <v>39142</v>
@@ -7318,7 +7317,7 @@
         <v>39236</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>117</v>
@@ -7342,7 +7341,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>119</v>
@@ -7362,7 +7361,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>66</v>
@@ -7384,7 +7383,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f>EDATE(A157,1)</f>
         <v>39173</v>
@@ -7409,7 +7408,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>57</v>
@@ -7431,7 +7430,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>122</v>
@@ -7453,7 +7452,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <f>EDATE(A161,1)</f>
         <v>39203</v>
@@ -7476,7 +7475,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>124</v>
@@ -7496,7 +7495,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>123</v>
@@ -7518,7 +7517,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f>EDATE(A164,1)</f>
         <v>39234</v>
@@ -7539,7 +7538,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f t="shared" ref="A168:A171" si="8">EDATE(A167,1)</f>
         <v>39264</v>
@@ -7564,7 +7563,7 @@
         <v>39362</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>129</v>
@@ -7586,7 +7585,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <f>EDATE(A168,1)</f>
         <v>39295</v>
@@ -7611,7 +7610,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f t="shared" si="8"/>
         <v>39326</v>
@@ -7636,7 +7635,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>132</v>
@@ -7656,7 +7655,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>104</v>
@@ -7678,7 +7677,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>135</v>
@@ -7698,7 +7697,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>136</v>
@@ -7716,7 +7715,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>132</v>
@@ -7734,7 +7733,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f>EDATE(A171,1)</f>
         <v>39356</v>
@@ -7759,7 +7758,7 @@
         <v>39212</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>137</v>
@@ -7781,7 +7780,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="50"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f>EDATE(A177,1)</f>
         <v>39387</v>
@@ -7806,7 +7805,7 @@
         <v>39362</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13">
@@ -7824,7 +7823,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f>EDATE(A179,1)</f>
         <v>39417</v>
@@ -7849,7 +7848,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="41"/>
       <c r="B182" s="15" t="s">
         <v>104</v>
@@ -7871,7 +7870,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13">
@@ -7889,7 +7888,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="48" t="s">
         <v>140</v>
       </c>
@@ -7907,7 +7906,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>39448</v>
       </c>
@@ -7931,7 +7930,7 @@
         <v>39661</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>141</v>
@@ -7953,7 +7952,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f>EDATE(A185,1)</f>
         <v>39479</v>
@@ -7978,7 +7977,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f t="shared" ref="A188:A197" si="9">EDATE(A187,1)</f>
         <v>39508</v>
@@ -8003,7 +8002,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>144</v>
@@ -8025,7 +8024,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f>EDATE(A188,1)</f>
         <v>39539</v>
@@ -8050,7 +8049,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <f t="shared" si="9"/>
         <v>39569</v>
@@ -8075,7 +8074,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>66</v>
@@ -8097,7 +8096,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>148</v>
@@ -8119,7 +8118,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f>EDATE(A191,1)</f>
         <v>39600</v>
@@ -8144,7 +8143,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>150</v>
@@ -8166,7 +8165,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f>EDATE(A194,1)</f>
         <v>39630</v>
@@ -8191,7 +8190,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f t="shared" si="9"/>
         <v>39661</v>
@@ -8216,7 +8215,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>66</v>
@@ -8238,7 +8237,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>154</v>
@@ -8260,7 +8259,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f>EDATE(A197,1)</f>
         <v>39692</v>
@@ -8283,7 +8282,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>47</v>
@@ -8305,7 +8304,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>155</v>
@@ -8327,7 +8326,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <f>EDATE(A200,1)</f>
         <v>39722</v>
@@ -8352,7 +8351,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>159</v>
@@ -8374,7 +8373,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f>EDATE(A203,1)</f>
         <v>39753</v>
@@ -8399,7 +8398,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>162</v>
@@ -8421,7 +8420,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f>EDATE(A205,1)</f>
         <v>39783</v>
@@ -8446,7 +8445,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>83</v>
@@ -8466,7 +8465,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="48" t="s">
         <v>164</v>
       </c>
@@ -8484,7 +8483,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>39814</v>
       </c>
@@ -8508,7 +8507,7 @@
         <v>40057</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>57</v>
@@ -8528,7 +8527,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>166</v>
@@ -8550,7 +8549,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f>EDATE(A210,1)</f>
         <v>39845</v>
@@ -8575,7 +8574,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>167</v>
@@ -8597,7 +8596,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f>EDATE(A213,1)</f>
         <v>39873</v>
@@ -8622,7 +8621,7 @@
         <v>40089</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>170</v>
@@ -8644,7 +8643,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f>EDATE(A215,1)</f>
         <v>39904</v>
@@ -8669,7 +8668,7 @@
         <v>39817</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>104</v>
@@ -8691,7 +8690,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>160</v>
@@ -8713,7 +8712,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f>EDATE(A217,1)</f>
         <v>39934</v>
@@ -8738,7 +8737,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>57</v>
@@ -8760,7 +8759,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>171</v>
@@ -8782,7 +8781,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f>EDATE(A220,1)</f>
         <v>39965</v>
@@ -8807,7 +8806,7 @@
         <v>39850</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>175</v>
@@ -8829,7 +8828,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f>EDATE(A223,1)</f>
         <v>39995</v>
@@ -8854,7 +8853,7 @@
         <v>39971</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>176</v>
@@ -8876,7 +8875,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f>EDATE(A225,1)</f>
         <v>40026</v>
@@ -8901,7 +8900,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f t="shared" ref="A228" si="10">EDATE(A227,1)</f>
         <v>40057</v>
@@ -8924,7 +8923,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>132</v>
@@ -8944,7 +8943,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>178</v>
@@ -8966,7 +8965,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f>EDATE(A228,1)</f>
         <v>40087</v>
@@ -8991,7 +8990,7 @@
         <v>39854</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>168</v>
@@ -9013,7 +9012,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>181</v>
@@ -9035,7 +9034,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f>EDATE(A231,1)</f>
         <v>40118</v>
@@ -9060,7 +9059,7 @@
         <v>40036</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>183</v>
@@ -9082,7 +9081,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f>EDATE(A234,1)</f>
         <v>40148</v>
@@ -9107,7 +9106,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>77</v>
@@ -9129,7 +9128,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>185</v>
@@ -9149,7 +9148,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="48" t="s">
         <v>186</v>
       </c>
@@ -9167,7 +9166,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>40179</v>
       </c>
@@ -9191,7 +9190,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>188</v>
@@ -9213,7 +9212,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f>EDATE(A240,1)</f>
         <v>40210</v>
@@ -9238,7 +9237,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>190</v>
@@ -9260,7 +9259,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <f>EDATE(A242,1)</f>
         <v>40238</v>
@@ -9285,7 +9284,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f t="shared" ref="A245:A255" si="11">EDATE(A244,1)</f>
         <v>40269</v>
@@ -9310,7 +9309,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>192</v>
@@ -9332,7 +9331,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <f>EDATE(A245,1)</f>
         <v>40299</v>
@@ -9357,7 +9356,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f t="shared" si="11"/>
         <v>40330</v>
@@ -9382,7 +9381,7 @@
         <v>40487</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>194</v>
@@ -9402,7 +9401,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>196</v>
@@ -9424,7 +9423,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f>EDATE(A248,1)</f>
         <v>40360</v>
@@ -9449,7 +9448,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>57</v>
@@ -9471,7 +9470,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>199</v>
@@ -9493,7 +9492,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f>EDATE(A251,1)</f>
         <v>40391</v>
@@ -9518,7 +9517,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <f t="shared" si="11"/>
         <v>40422</v>
@@ -9541,7 +9540,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>117</v>
@@ -9563,7 +9562,7 @@
         <v>40308</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>57</v>
@@ -9585,7 +9584,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>202</v>
@@ -9607,7 +9606,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f>EDATE(A255,1)</f>
         <v>40452</v>
@@ -9630,7 +9629,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>204</v>
@@ -9652,7 +9651,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f>EDATE(A259,1)</f>
         <v>40483</v>
@@ -9677,7 +9676,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>207</v>
@@ -9699,7 +9698,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <f>EDATE(A261,1)</f>
         <v>40513</v>
@@ -9724,7 +9723,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="48" t="s">
         <v>209</v>
       </c>
@@ -9742,7 +9741,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>40544</v>
       </c>
@@ -9766,7 +9765,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f>EDATE(A265,1)</f>
         <v>40575</v>
@@ -9791,7 +9790,7 @@
         <v>40757</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>211</v>
@@ -9813,7 +9812,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f>EDATE(A266,1)</f>
         <v>40603</v>
@@ -9838,7 +9837,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>132</v>
@@ -9858,7 +9857,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>214</v>
@@ -9880,7 +9879,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f>EDATE(A268,1)</f>
         <v>40634</v>
@@ -9905,7 +9904,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f t="shared" ref="A272:A285" si="12">EDATE(A271,1)</f>
         <v>40664</v>
@@ -9930,7 +9929,7 @@
         <v>40852</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>56</v>
@@ -9952,7 +9951,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f>EDATE(A272,1)</f>
         <v>40695</v>
@@ -9977,7 +9976,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f t="shared" si="12"/>
         <v>40725</v>
@@ -10002,7 +10001,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>218</v>
@@ -10024,7 +10023,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f>EDATE(A275,1)</f>
         <v>40756</v>
@@ -10049,7 +10048,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>221</v>
@@ -10071,7 +10070,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <f>EDATE(A277,1)</f>
         <v>40787</v>
@@ -10094,7 +10093,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>193</v>
@@ -10116,7 +10115,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f>EDATE(A279,1)</f>
         <v>40817</v>
@@ -10141,7 +10140,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>57</v>
@@ -10163,7 +10162,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>225</v>
@@ -10185,7 +10184,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f>EDATE(A281,1)</f>
         <v>40848</v>
@@ -10210,7 +10209,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <f t="shared" si="12"/>
         <v>40878</v>
@@ -10235,7 +10234,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>57</v>
@@ -10257,7 +10256,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>229</v>
@@ -10279,7 +10278,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="48" t="s">
         <v>230</v>
       </c>
@@ -10297,7 +10296,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>40909</v>
       </c>
@@ -10323,7 +10322,7 @@
         <v>41061</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>231</v>
@@ -10343,7 +10342,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f>EDATE(A289,1)</f>
         <v>40940</v>
@@ -10368,7 +10367,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>132</v>
@@ -10388,7 +10387,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>234</v>
@@ -10410,7 +10409,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f>EDATE(A291,1)</f>
         <v>40969</v>
@@ -10435,7 +10434,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>57</v>
@@ -10455,7 +10454,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>236</v>
@@ -10477,7 +10476,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <f>EDATE(A294,1)</f>
         <v>41000</v>
@@ -10502,7 +10501,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f t="shared" ref="A298:A304" si="13">EDATE(A297,1)</f>
         <v>41030</v>
@@ -10525,7 +10524,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>104</v>
@@ -10547,7 +10546,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>240</v>
@@ -10569,7 +10568,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <f>EDATE(A298,1)</f>
         <v>41061</v>
@@ -10594,7 +10593,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f t="shared" si="13"/>
         <v>41091</v>
@@ -10619,7 +10618,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f t="shared" si="13"/>
         <v>41122</v>
@@ -10640,7 +10639,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f t="shared" si="13"/>
         <v>41153</v>
@@ -10665,7 +10664,7 @@
         <v>41008</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>132</v>
@@ -10685,7 +10684,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>117</v>
@@ -10707,7 +10706,7 @@
         <v>41039</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20"/>
       <c r="C307" s="13">
@@ -10725,7 +10724,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <f>EDATE(A304,1)</f>
         <v>41183</v>
@@ -10750,7 +10749,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20"/>
       <c r="C309" s="13">
@@ -10768,7 +10767,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f>EDATE(A308,1)</f>
         <v>41214</v>
@@ -10793,7 +10792,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>95</v>
@@ -10815,7 +10814,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f>EDATE(A310,1)</f>
         <v>41244</v>
@@ -10840,7 +10839,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>210</v>
@@ -10862,7 +10861,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="48" t="s">
         <v>246</v>
       </c>
@@ -10880,7 +10879,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>41275</v>
       </c>
@@ -10902,7 +10901,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f>EDATE(A315,1)</f>
         <v>41306</v>
@@ -10927,7 +10926,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20"/>
       <c r="C317" s="13"/>
@@ -10943,7 +10942,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f>EDATE(A316,1)</f>
         <v>41334</v>
@@ -10964,7 +10963,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f t="shared" ref="A319:A327" si="14">EDATE(A318,1)</f>
         <v>41365</v>
@@ -10985,7 +10984,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <f t="shared" si="14"/>
         <v>41395</v>
@@ -11010,7 +11009,7 @@
         <v>41365</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>117</v>
@@ -11032,7 +11031,7 @@
         <v>41491</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>57</v>
@@ -11054,7 +11053,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <f>EDATE(A320,1)</f>
         <v>41426</v>
@@ -11075,7 +11074,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <f t="shared" si="14"/>
         <v>41456</v>
@@ -11096,7 +11095,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f t="shared" si="14"/>
         <v>41487</v>
@@ -11117,7 +11116,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <f t="shared" si="14"/>
         <v>41518</v>
@@ -11138,7 +11137,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f t="shared" si="14"/>
         <v>41548</v>
@@ -11163,7 +11162,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>83</v>
@@ -11185,7 +11184,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20"/>
       <c r="C329" s="13">
@@ -11203,7 +11202,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <f>EDATE(A327,1)</f>
         <v>41579</v>
@@ -11226,7 +11225,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f>EDATE(A330,1)</f>
         <v>41609</v>
@@ -11251,7 +11250,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>250</v>
@@ -11271,7 +11270,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="48" t="s">
         <v>251</v>
       </c>
@@ -11289,7 +11288,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>41640</v>
       </c>
@@ -11313,7 +11312,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>253</v>
@@ -11335,7 +11334,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <f>EDATE(A334,1)</f>
         <v>41671</v>
@@ -11356,7 +11355,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f t="shared" ref="A337:A350" si="15">EDATE(A336,1)</f>
         <v>41699</v>
@@ -11381,7 +11380,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>255</v>
@@ -11403,7 +11402,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <f>EDATE(A337,1)</f>
         <v>41730</v>
@@ -11428,7 +11427,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <f t="shared" si="15"/>
         <v>41760</v>
@@ -11453,7 +11452,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>221</v>
@@ -11475,7 +11474,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f>EDATE(A340,1)</f>
         <v>41791</v>
@@ -11500,7 +11499,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <f t="shared" si="15"/>
         <v>41821</v>
@@ -11521,7 +11520,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <f t="shared" si="15"/>
         <v>41852</v>
@@ -11546,7 +11545,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <f t="shared" si="15"/>
         <v>41883</v>
@@ -11569,7 +11568,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>132</v>
@@ -11589,7 +11588,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>104</v>
@@ -11611,7 +11610,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>262</v>
@@ -11633,7 +11632,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <f>EDATE(A345,1)</f>
         <v>41913</v>
@@ -11654,7 +11653,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <f t="shared" si="15"/>
         <v>41944</v>
@@ -11679,7 +11678,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>64</v>
@@ -11701,7 +11700,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20"/>
       <c r="C352" s="13"/>
@@ -11717,7 +11716,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <f>EDATE(A350,1)</f>
         <v>41974</v>
@@ -11742,7 +11741,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="48" t="s">
         <v>266</v>
       </c>
@@ -11760,7 +11759,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>42005</v>
       </c>
@@ -11784,7 +11783,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>268</v>
@@ -11806,7 +11805,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <f>EDATE(A355,1)</f>
         <v>42036</v>
@@ -11831,7 +11830,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <f t="shared" ref="A358:A371" si="16">EDATE(A357,1)</f>
         <v>42064</v>
@@ -11856,7 +11855,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>132</v>
@@ -11876,7 +11875,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>269</v>
@@ -11898,7 +11897,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <f>EDATE(A358,1)</f>
         <v>42095</v>
@@ -11923,7 +11922,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>207</v>
@@ -11945,7 +11944,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f>EDATE(A361,1)</f>
         <v>42125</v>
@@ -11970,7 +11969,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>132</v>
@@ -11990,7 +11989,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>57</v>
@@ -12012,7 +12011,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>276</v>
@@ -12034,7 +12033,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <f>EDATE(A363,1)</f>
         <v>42156</v>
@@ -12059,7 +12058,7 @@
         <v>42130</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>253</v>
@@ -12081,7 +12080,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="50"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <f>EDATE(A367,1)</f>
         <v>42186</v>
@@ -12106,7 +12105,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <f t="shared" si="16"/>
         <v>42217</v>
@@ -12131,7 +12130,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <f t="shared" si="16"/>
         <v>42248</v>
@@ -12156,7 +12155,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>132</v>
@@ -12176,7 +12175,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>95</v>
@@ -12198,7 +12197,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f>EDATE(A371,1)</f>
         <v>42278</v>
@@ -12223,7 +12222,7 @@
         <v>42134</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>280</v>
@@ -12245,7 +12244,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <f>EDATE(A374,1)</f>
         <v>42309</v>
@@ -12270,7 +12269,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>281</v>
@@ -12292,7 +12291,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <f>EDATE(A376,1)</f>
         <v>42339</v>
@@ -12317,7 +12316,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="48" t="s">
         <v>284</v>
       </c>
@@ -12335,7 +12334,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>42370</v>
       </c>
@@ -12359,7 +12358,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>286</v>
@@ -12381,7 +12380,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <f>EDATE(A380,1)</f>
         <v>42401</v>
@@ -12406,7 +12405,7 @@
         <v>42706</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>287</v>
@@ -12428,7 +12427,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <f>EDATE(A382,1)</f>
         <v>42430</v>
@@ -12453,7 +12452,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>289</v>
@@ -12475,7 +12474,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <f>EDATE(A384,1)</f>
         <v>42461</v>
@@ -12500,7 +12499,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <f t="shared" ref="A387:A393" si="17">EDATE(A386,1)</f>
         <v>42491</v>
@@ -12525,7 +12524,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <f t="shared" si="17"/>
         <v>42522</v>
@@ -12550,7 +12549,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <f t="shared" si="17"/>
         <v>42552</v>
@@ -12575,7 +12574,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <f t="shared" si="17"/>
         <v>42583</v>
@@ -12600,7 +12599,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f t="shared" si="17"/>
         <v>42614</v>
@@ -12625,7 +12624,7 @@
       <c r="J391" s="12"/>
       <c r="K391" s="15"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <f t="shared" si="17"/>
         <v>42644</v>
@@ -12650,7 +12649,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <f t="shared" si="17"/>
         <v>42675</v>
@@ -12673,7 +12672,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>45</v>
@@ -12695,7 +12694,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f>EDATE(A393,1)</f>
         <v>42705</v>
@@ -12718,7 +12717,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>301</v>
@@ -12740,7 +12739,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="48" t="s">
         <v>302</v>
       </c>
@@ -12758,7 +12757,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>42736</v>
       </c>
@@ -12778,7 +12777,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <f>EDATE(A398,1)</f>
         <v>42767</v>
@@ -12801,7 +12800,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>304</v>
@@ -12823,7 +12822,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <f>EDATE(A399,1)</f>
         <v>42795</v>
@@ -12846,7 +12845,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>306</v>
@@ -12868,7 +12867,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>308</v>
@@ -12890,7 +12889,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <f>EDATE(A401,1)</f>
         <v>42826</v>
@@ -12911,7 +12910,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f t="shared" ref="A405:A418" si="18">EDATE(A404,1)</f>
         <v>42856</v>
@@ -12936,7 +12935,7 @@
         <v>43044</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>42</v>
@@ -12958,7 +12957,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <f>EDATE(A405,1)</f>
         <v>42887</v>
@@ -12983,7 +12982,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <f t="shared" si="18"/>
         <v>42917</v>
@@ -13006,7 +13005,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>310</v>
@@ -13028,7 +13027,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f>EDATE(A408,1)</f>
         <v>42948</v>
@@ -13053,7 +13052,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>311</v>
@@ -13075,7 +13074,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <f>EDATE(A410,1)</f>
         <v>42979</v>
@@ -13100,7 +13099,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>70</v>
@@ -13122,7 +13121,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>70</v>
@@ -13144,7 +13143,7 @@
         <v>42865</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>104</v>
@@ -13166,7 +13165,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>95</v>
@@ -13188,7 +13187,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <f>EDATE(A412,1)</f>
         <v>43009</v>
@@ -13213,7 +13212,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <f t="shared" si="18"/>
         <v>43040</v>
@@ -13238,7 +13237,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13">
@@ -13256,7 +13255,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <f>EDATE(A418,1)</f>
         <v>43070</v>
@@ -13277,7 +13276,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="48" t="s">
         <v>317</v>
       </c>
@@ -13295,7 +13294,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>43101</v>
       </c>
@@ -13315,7 +13314,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <f>EDATE(A422,1)</f>
         <v>43132</v>
@@ -13338,7 +13337,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20"/>
       <c r="C424" s="13">
@@ -13356,7 +13355,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <f>EDATE(A423,1)</f>
         <v>43160</v>
@@ -13377,7 +13376,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <f t="shared" ref="A426:A440" si="19">EDATE(A425,1)</f>
         <v>43191</v>
@@ -13400,7 +13399,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13">
@@ -13418,7 +13417,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <f>EDATE(A426,1)</f>
         <v>43221</v>
@@ -13443,7 +13442,7 @@
         <v>43409</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>132</v>
@@ -13463,7 +13462,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13">
@@ -13481,7 +13480,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <f>EDATE(A428,1)</f>
         <v>43252</v>
@@ -13502,7 +13501,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <f t="shared" si="19"/>
         <v>43282</v>
@@ -13523,7 +13522,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f t="shared" si="19"/>
         <v>43313</v>
@@ -13544,7 +13543,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <f t="shared" si="19"/>
         <v>43344</v>
@@ -13569,7 +13568,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13">
@@ -13587,7 +13586,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <f>EDATE(A434,1)</f>
         <v>43374</v>
@@ -13612,7 +13611,7 @@
         <v>43230</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>62</v>
@@ -13632,7 +13631,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13">
@@ -13650,7 +13649,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="50"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <f>EDATE(A436,1)</f>
         <v>43405</v>
@@ -13671,7 +13670,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <f t="shared" si="19"/>
         <v>43435</v>
@@ -13692,7 +13691,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="48" t="s">
         <v>323</v>
       </c>
@@ -13710,7 +13709,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>43466</v>
       </c>
@@ -13734,7 +13733,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -13750,7 +13749,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="41">
         <f>EDATE(A442,1)</f>
         <v>43497</v>
@@ -13771,7 +13770,7 @@
       <c r="J444" s="12"/>
       <c r="K444" s="15"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="41">
         <f t="shared" ref="A445:A456" si="20">EDATE(A444,1)</f>
         <v>43525</v>
@@ -13796,7 +13795,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20"/>
       <c r="C446" s="13">
@@ -13814,7 +13813,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="41">
         <f>EDATE(A445,1)</f>
         <v>43556</v>
@@ -13835,7 +13834,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="41">
         <f t="shared" si="20"/>
         <v>43586</v>
@@ -13856,7 +13855,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="41">
         <f t="shared" si="20"/>
         <v>43617</v>
@@ -13877,7 +13876,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="41">
         <f t="shared" si="20"/>
         <v>43647</v>
@@ -13898,7 +13897,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="41">
         <f t="shared" si="20"/>
         <v>43678</v>
@@ -13919,7 +13918,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="41">
         <f>EDATE(A451,1)</f>
         <v>43709</v>
@@ -13942,7 +13941,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20"/>
       <c r="C453" s="13">
@@ -13960,7 +13959,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="41">
         <f>EDATE(A452,1)</f>
         <v>43739</v>
@@ -13981,7 +13980,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="41">
         <f t="shared" si="20"/>
         <v>43770</v>
@@ -14002,7 +14001,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="41">
         <f t="shared" si="20"/>
         <v>43800</v>
@@ -14027,7 +14026,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="55" t="s">
         <v>327</v>
       </c>
@@ -14045,7 +14044,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="41">
         <v>43831</v>
       </c>
@@ -14065,7 +14064,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <f>EDATE(A458,1)</f>
         <v>43862</v>
@@ -14090,7 +14089,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>330</v>
@@ -14112,7 +14111,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20"/>
       <c r="C461" s="13">
@@ -14130,7 +14129,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <f>EDATE(A459,1)</f>
         <v>43891</v>
@@ -14151,7 +14150,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <f t="shared" ref="A463:A473" si="21">EDATE(A462,1)</f>
         <v>43922</v>
@@ -14172,7 +14171,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <f t="shared" si="21"/>
         <v>43952</v>
@@ -14193,7 +14192,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <f t="shared" si="21"/>
         <v>43983</v>
@@ -14214,7 +14213,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <f t="shared" si="21"/>
         <v>44013</v>
@@ -14235,7 +14234,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <f t="shared" si="21"/>
         <v>44044</v>
@@ -14256,7 +14255,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <f t="shared" si="21"/>
         <v>44075</v>
@@ -14281,7 +14280,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>132</v>
@@ -14301,7 +14300,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20"/>
       <c r="C470" s="13">
@@ -14319,7 +14318,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <f>EDATE(A468,1)</f>
         <v>44105</v>
@@ -14340,7 +14339,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <f t="shared" si="21"/>
         <v>44136</v>
@@ -14361,7 +14360,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <f t="shared" si="21"/>
         <v>44166</v>
@@ -14386,7 +14385,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="55" t="s">
         <v>335</v>
       </c>
@@ -14404,7 +14403,7 @@
       <c r="J474" s="12"/>
       <c r="K474" s="15"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>44197</v>
       </c>
@@ -14424,7 +14423,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <f>EDATE(A475,1)</f>
         <v>44228</v>
@@ -14445,7 +14444,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <f t="shared" ref="A477:A485" si="22">EDATE(A476,1)</f>
         <v>44256</v>
@@ -14466,7 +14465,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <f t="shared" si="22"/>
         <v>44287</v>
@@ -14487,7 +14486,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <f t="shared" si="22"/>
         <v>44317</v>
@@ -14508,7 +14507,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <f t="shared" si="22"/>
         <v>44348</v>
@@ -14529,7 +14528,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <f t="shared" si="22"/>
         <v>44378</v>
@@ -14550,7 +14549,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <f t="shared" si="22"/>
         <v>44409</v>
@@ -14571,7 +14570,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <f t="shared" si="22"/>
         <v>44440</v>
@@ -14592,7 +14591,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <f>EDATE(A483,1)</f>
         <v>44470</v>
@@ -14613,7 +14612,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <f t="shared" si="22"/>
         <v>44501</v>
@@ -14636,7 +14635,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>194</v>
@@ -14656,7 +14655,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>330</v>
@@ -14678,7 +14677,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20"/>
       <c r="C488" s="13">
@@ -14696,7 +14695,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <f>EDATE(A485,1)</f>
         <v>44531</v>
@@ -14717,7 +14716,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="48" t="s">
         <v>338</v>
       </c>
@@ -14735,7 +14734,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>44562</v>
       </c>
@@ -14757,7 +14756,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>57</v>
@@ -14777,7 +14776,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20"/>
       <c r="C493" s="13">
@@ -14795,7 +14794,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <f>EDATE(A491,1)</f>
         <v>44593</v>
@@ -14816,7 +14815,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <f t="shared" ref="A495:A502" si="23">EDATE(A494,1)</f>
         <v>44621</v>
@@ -14837,7 +14836,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <f t="shared" si="23"/>
         <v>44652</v>
@@ -14862,7 +14861,7 @@
         <v>44565</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40" t="s">
         <v>340</v>
       </c>
@@ -14886,7 +14885,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20"/>
       <c r="C498" s="13">
@@ -14904,7 +14903,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <f>EDATE(A496,1)</f>
         <v>44682</v>
@@ -14925,7 +14924,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <f t="shared" si="23"/>
         <v>44713</v>
@@ -14946,7 +14945,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <f t="shared" si="23"/>
         <v>44743</v>
@@ -14967,7 +14966,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <f t="shared" si="23"/>
         <v>44774</v>
@@ -14992,7 +14991,7 @@
         <v>44569</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>71</v>
@@ -15014,7 +15013,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20"/>
       <c r="C504" s="13">
@@ -15032,7 +15031,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <f>EDATE(A502,1)</f>
         <v>44805</v>
@@ -15053,7 +15052,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>71</v>
@@ -15075,7 +15074,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20"/>
       <c r="C507" s="13">
@@ -15093,7 +15092,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>44835</v>
       </c>
@@ -15119,7 +15118,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>352</v>
@@ -15141,7 +15140,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>44866</v>
       </c>
@@ -15161,7 +15160,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>44896</v>
       </c>
@@ -15187,7 +15186,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="48" t="s">
         <v>349</v>
       </c>
@@ -15205,7 +15204,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>44957</v>
       </c>
@@ -15231,7 +15230,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>44985</v>
       </c>
@@ -15255,7 +15254,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>45016</v>
       </c>
@@ -15275,7 +15274,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>45046</v>
       </c>
@@ -15295,7 +15294,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>45077</v>
       </c>
@@ -15315,7 +15314,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>45107</v>
       </c>
@@ -15339,25 +15338,33 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>45138</v>
       </c>
-      <c r="B519" s="20"/>
-      <c r="C519" s="13"/>
-      <c r="D519" s="39"/>
+      <c r="B519" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="C519" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D519" s="39">
+        <v>1</v>
+      </c>
       <c r="E519" s="9"/>
       <c r="F519" s="20"/>
-      <c r="G519" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G519" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H519" s="39"/>
       <c r="I519" s="9"/>
       <c r="J519" s="11"/>
-      <c r="K519" s="20"/>
-    </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K519" s="50">
+        <v>45135</v>
+      </c>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>45169</v>
       </c>
@@ -15375,7 +15382,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>45199</v>
       </c>
@@ -15393,7 +15400,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>45230</v>
       </c>
@@ -15411,7 +15418,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>45260</v>
       </c>
@@ -15429,7 +15436,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>45291</v>
       </c>
@@ -15447,7 +15454,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>45322</v>
       </c>
@@ -15465,7 +15472,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>45351</v>
       </c>
@@ -15483,7 +15490,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>45382</v>
       </c>
@@ -15501,7 +15508,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>45412</v>
       </c>
@@ -15519,7 +15526,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>45443</v>
       </c>
@@ -15537,7 +15544,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>45473</v>
       </c>
@@ -15555,7 +15562,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>45504</v>
       </c>
@@ -15573,7 +15580,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>45535</v>
       </c>
@@ -15591,7 +15598,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>45565</v>
       </c>
@@ -15609,7 +15616,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>45596</v>
       </c>
@@ -15627,7 +15634,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>45626</v>
       </c>
@@ -15645,7 +15652,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>45657</v>
       </c>
@@ -15663,7 +15670,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>45688</v>
       </c>
@@ -15681,7 +15688,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>45716</v>
       </c>
@@ -15699,7 +15706,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>45747</v>
       </c>
@@ -15717,7 +15724,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -15733,7 +15740,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -15749,7 +15756,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -15765,7 +15772,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -15781,7 +15788,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -15797,7 +15804,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -15813,7 +15820,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40"/>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -15829,7 +15836,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -15845,7 +15852,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -15861,7 +15868,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -15877,7 +15884,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -15893,7 +15900,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -15909,7 +15916,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -15925,7 +15932,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -15941,7 +15948,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -15957,7 +15964,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -15973,7 +15980,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -15989,7 +15996,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -16005,7 +16012,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -16021,7 +16028,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="41"/>
       <c r="B559" s="15"/>
       <c r="C559" s="42"/>
@@ -16052,10 +16059,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16078,7 +16085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -16086,21 +16093,21 @@
       <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="66" t="s">
         <v>32</v>
       </c>
@@ -16113,7 +16120,7 @@
       <c r="K1" s="67"/>
       <c r="L1" s="67"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>23</v>
       </c>
@@ -16142,7 +16149,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -16168,17 +16175,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>358</v>
       </c>
@@ -16202,10 +16209,10 @@
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>324.79099999999994</v>
+        <v>326.29099999999994</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -16233,7 +16240,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16259,7 +16266,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16285,7 +16292,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16311,7 +16318,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16337,7 +16344,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16363,7 +16370,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16389,7 +16396,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16415,7 +16422,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16435,7 +16442,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16455,7 +16462,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16475,7 +16482,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16496,7 +16503,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16517,7 +16524,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -16538,7 +16545,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -16559,7 +16566,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -16580,7 +16587,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -16601,7 +16608,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -16622,7 +16629,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -16643,7 +16650,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -16664,7 +16671,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -16685,7 +16692,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16706,7 +16713,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16727,7 +16734,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16748,7 +16755,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16769,7 +16776,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16790,7 +16797,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16811,7 +16818,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -16832,7 +16839,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -16853,7 +16860,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -16874,7 +16881,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -16895,7 +16902,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -16904,7 +16911,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -16913,7 +16920,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -16922,7 +16929,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -16931,7 +16938,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -16940,7 +16947,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -16949,7 +16956,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -16958,7 +16965,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -16967,7 +16974,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -16976,7 +16983,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -16985,7 +16992,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -16994,7 +17001,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17003,7 +17010,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17012,7 +17019,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17021,7 +17028,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17030,7 +17037,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17039,7 +17046,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17048,7 +17055,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17057,7 +17064,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17066,7 +17073,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17075,7 +17082,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17084,7 +17091,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17093,7 +17100,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17102,7 +17109,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17111,7 +17118,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17120,7 +17127,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17129,7 +17136,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17138,7 +17145,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17147,7 +17154,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17156,7 +17163,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
